--- a/Output/Tables/m2a.xlsx
+++ b/Output/Tables/m2a.xlsx
@@ -1,106 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjifradeleeuw/GitHub/Replication-Code-Media-History-Political-History-and-News-Coverage/Output/Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C3AEA-BB43-A941-A113-1702CFBE51E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>estimate</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>ub</t>
-  </si>
-  <si>
-    <t>b_se</t>
-  </si>
-  <si>
-    <t>ci</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>autYes</t>
-  </si>
-  <si>
-    <t>lrright</t>
-  </si>
-  <si>
-    <t>lrcenter</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>std,error</t>
-  </si>
-  <si>
-    <t>0,147(0,036)</t>
-  </si>
-  <si>
-    <t>0,106(0,061)</t>
-  </si>
-  <si>
-    <t>0,000(0,016)</t>
-  </si>
-  <si>
-    <t>-0,015(0,028)</t>
-  </si>
-  <si>
-    <t>1,858(0,047)</t>
-  </si>
-  <si>
-    <t>[0.101;0.193]</t>
-  </si>
-  <si>
-    <t>[0.028;0.184]</t>
-  </si>
-  <si>
-    <t>[-0.020;0.020]</t>
-  </si>
-  <si>
-    <t>[-0.051;0.021]</t>
-  </si>
-  <si>
-    <t>[1.797;1.918]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,165 +350,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std.error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lb</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ub</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>b_se</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="C2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D2">
-        <f>B2-(1.28*C2)</f>
-        <v>0.10092</v>
-      </c>
-      <c r="E2">
-        <f>B2+(1.28*C2)</f>
-        <v>0.19307999999999997</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.146</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.101</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.146(0.035)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[ 0.101;0.191]</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.106</v>
-      </c>
-      <c r="C3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D3">
-        <f>B3-(1.28*C3)</f>
-        <v>2.792E-2</v>
-      </c>
-      <c r="E3">
-        <f>B3+(1.28*C3)</f>
-        <v>0.18407999999999999</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>autYes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.030</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.182</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.106(0.059)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[ 0.030;0.182]</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D4">
-        <f>B4-(1.28*C4)</f>
-        <v>-2.0480000000000002E-2</v>
-      </c>
-      <c r="E4">
-        <f>B4+(1.28*C4)</f>
-        <v>2.0480000000000002E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lrright</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-0.021</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.019</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.001(0.016)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[-0.021;0.019]</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <f>B5-(1.28*C5)</f>
-        <v>-5.0840000000000003E-2</v>
-      </c>
-      <c r="E5">
-        <f>B5+(1.28*C5)</f>
-        <v>2.0840000000000004E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lrcenter</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.027</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.018</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.017(0.027)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[-0.052;0.018]</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="C6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D6">
-        <f>B6-(1.28*C6)</f>
-        <v>1.7978400000000001</v>
-      </c>
-      <c r="E6">
-        <f>B6+(1.28*C6)</f>
-        <v>1.9181600000000001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.046</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.799</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.917</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.858(0.046)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[ 1.799;1.917]</t>
+        </is>
       </c>
     </row>
   </sheetData>
